--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cours\BUT1\Semestre 2\SAÉ 201 - Conception et implémentation d'une base de données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B629BF-0CE7-4C81-A194-4D2933D99514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139B427-D3B9-45FC-A353-B20A6993D43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="2" xr2:uid="{0F7A7C38-D0DF-4424-AE5F-56D450649275}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="1" xr2:uid="{0F7A7C38-D0DF-4424-AE5F-56D450649275}"/>
   </bookViews>
   <sheets>
     <sheet name="ADHERENT" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="VILLE" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ADHESION!$A$1:$F$283</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VILLE!$A$1:$A$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="482">
   <si>
     <t>NUMERO ADHERENT</t>
   </si>
@@ -62,9 +63,6 @@
     <t>TELEPHONE</t>
   </si>
   <si>
-    <t>DATE ADHESION 2015</t>
-  </si>
-  <si>
     <t>Madison</t>
   </si>
   <si>
@@ -92,9 +90,6 @@
     <t>espèces</t>
   </si>
   <si>
-    <t>espèce</t>
-  </si>
-  <si>
     <t>helloasso</t>
   </si>
   <si>
@@ -665,9 +660,6 @@
     <t>06 49 82 68 73</t>
   </si>
   <si>
-    <t>hello asso</t>
-  </si>
-  <si>
     <t>Olympia</t>
   </si>
   <si>
@@ -770,9 +762,6 @@
     <t>06 52 44 19 43</t>
   </si>
   <si>
-    <t>espece</t>
-  </si>
-  <si>
     <t>Burnett Road</t>
   </si>
   <si>
@@ -1485,6 +1474,9 @@
   </si>
   <si>
     <t>NON</t>
+  </si>
+  <si>
+    <t>DATE ADHESION</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7445ACD4-DF87-45BB-AB16-677ED039E57B}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I180"/>
     </sheetView>
   </sheetViews>
@@ -1915,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1923,28 +1915,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>29056</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1952,28 +1944,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>31748</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1981,28 +1973,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>33144</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2010,28 +2002,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>32526</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2039,28 +2031,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>32092</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2068,28 +2060,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>19048</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,25 +2089,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,25 +2115,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,28 +2141,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
         <v>31989</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,25 +2170,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2204,28 +2196,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1">
         <v>32000</v>
       </c>
       <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
-      </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2233,28 +2225,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1">
         <v>28623</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2262,28 +2254,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1">
         <v>32102</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2291,28 +2283,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1">
         <v>32682</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2320,28 +2312,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1">
         <v>23036</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2349,28 +2341,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="1">
         <v>22108</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2378,28 +2370,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1">
         <v>33475</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2407,28 +2399,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" s="1">
         <v>31636</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,28 +2428,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1">
         <v>35194</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2465,28 +2457,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1">
         <v>42059</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2494,28 +2486,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1">
         <v>42053</v>
       </c>
       <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
         <v>153</v>
       </c>
-      <c r="F22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" t="s">
-        <v>155</v>
-      </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2523,25 +2515,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1">
         <v>42068</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,25 +2541,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1">
         <v>42094</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,28 +2567,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1">
         <v>31602</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2604,28 +2596,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1">
         <v>32682</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I26" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2633,25 +2625,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
         <v>173</v>
       </c>
-      <c r="C27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" t="s">
-        <v>175</v>
-      </c>
       <c r="I27" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2659,25 +2651,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" t="s">
         <v>177</v>
       </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" t="s">
-        <v>179</v>
-      </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2685,25 +2677,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I29" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2711,22 +2703,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2734,25 +2726,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2760,28 +2752,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" s="1">
         <v>35043</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I32" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2789,28 +2781,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1">
         <v>31642</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2818,28 +2810,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1">
         <v>33959</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2847,25 +2839,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
         <v>204</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>205</v>
       </c>
-      <c r="E35" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" t="s">
-        <v>207</v>
-      </c>
       <c r="G35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2873,28 +2865,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
         <v>31022</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" t="s">
         <v>212</v>
       </c>
-      <c r="G36" t="s">
-        <v>215</v>
-      </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I36" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2902,28 +2894,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1">
         <v>34950</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I37" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,28 +2923,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D38" s="1">
         <v>33459</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" t="s">
         <v>222</v>
       </c>
-      <c r="G38" t="s">
-        <v>226</v>
-      </c>
-      <c r="H38" t="s">
-        <v>225</v>
-      </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2960,28 +2952,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D39" s="1">
         <v>27145</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F39" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" t="s">
         <v>229</v>
       </c>
-      <c r="G39" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" t="s">
-        <v>232</v>
-      </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2989,28 +2981,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D40" s="1">
         <v>31781</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3018,28 +3010,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D41" s="1">
         <v>30201</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3047,25 +3039,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" t="s">
         <v>240</v>
       </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" t="s">
-        <v>243</v>
-      </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I42" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,25 +3065,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,22 +3091,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3122,22 +3114,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3145,25 +3137,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D46" s="1">
         <v>25175</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,22 +3163,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,28 +3186,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1">
         <v>26658</v>
       </c>
       <c r="E48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" t="s">
         <v>254</v>
       </c>
-      <c r="F48" t="s">
-        <v>255</v>
-      </c>
-      <c r="G48" t="s">
-        <v>258</v>
-      </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I48" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,28 +3215,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="1">
         <v>31555</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3252,28 +3244,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" s="1">
         <v>34782</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3281,25 +3273,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G51" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3307,28 +3299,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" s="1">
         <v>36478</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3336,28 +3328,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1">
         <v>36170</v>
       </c>
       <c r="E53" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,28 +3357,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1">
         <v>35223</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,28 +3386,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D55" s="1">
         <v>31052</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3423,28 +3415,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D56" s="1">
         <v>30084</v>
       </c>
       <c r="E56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" t="s">
         <v>276</v>
       </c>
-      <c r="F56" t="s">
-        <v>277</v>
-      </c>
-      <c r="G56" t="s">
-        <v>280</v>
-      </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,28 +3444,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D57" s="1">
         <v>36659</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F57" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3481,28 +3473,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D58" s="1">
         <v>27499</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I58" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,22 +3502,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F59" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3533,28 +3525,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1">
         <v>32478</v>
       </c>
       <c r="E60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F60" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G60" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3562,28 +3554,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61" s="1">
         <v>25044</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3591,28 +3583,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D62" s="1">
         <v>30235</v>
       </c>
       <c r="E62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" t="s">
         <v>295</v>
       </c>
-      <c r="F62" t="s">
-        <v>296</v>
-      </c>
-      <c r="G62" t="s">
-        <v>299</v>
-      </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,28 +3612,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63" s="1">
         <v>25404</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G63" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,28 +3641,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="1">
         <v>17868</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I64" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3678,22 +3670,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I65" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,22 +3693,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,25 +3716,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H67" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I67" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3750,28 +3742,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1">
         <v>23909</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,25 +3771,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
+        <v>310</v>
+      </c>
+      <c r="F69" t="s">
+        <v>311</v>
+      </c>
+      <c r="G69" t="s">
         <v>314</v>
       </c>
-      <c r="F69" t="s">
-        <v>315</v>
-      </c>
-      <c r="G69" t="s">
-        <v>318</v>
-      </c>
       <c r="H69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,28 +3797,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D70" s="1">
         <v>18611</v>
       </c>
       <c r="E70" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G70" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H70" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,28 +3826,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D71" s="1">
         <v>34750</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H71" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,28 +3855,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D72" s="1">
         <v>35729</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H72" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3892,28 +3884,28 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1">
         <v>30978</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G73" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H73" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I73" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3921,25 +3913,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G74" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I74" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,28 +3939,28 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D75" s="1">
         <v>36103</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G75" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3976,22 +3968,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E76" t="s">
+        <v>329</v>
+      </c>
+      <c r="F76" t="s">
+        <v>330</v>
+      </c>
+      <c r="H76" t="s">
         <v>333</v>
       </c>
-      <c r="F76" t="s">
-        <v>334</v>
-      </c>
-      <c r="H76" t="s">
-        <v>337</v>
-      </c>
       <c r="I76" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3999,28 +3991,28 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" s="1">
         <v>33731</v>
       </c>
       <c r="E77" t="s">
+        <v>334</v>
+      </c>
+      <c r="F77" t="s">
+        <v>335</v>
+      </c>
+      <c r="G77" t="s">
         <v>338</v>
       </c>
-      <c r="F77" t="s">
-        <v>339</v>
-      </c>
-      <c r="G77" t="s">
-        <v>342</v>
-      </c>
       <c r="H77" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I77" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4028,28 +4020,28 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D78" s="1">
         <v>33776</v>
       </c>
       <c r="E78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4057,28 +4049,28 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="1">
         <v>35157</v>
       </c>
       <c r="E79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4086,28 +4078,28 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D80" s="1">
         <v>35776</v>
       </c>
       <c r="E80" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G80" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H80" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4115,25 +4107,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D81" s="1">
         <v>31124</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H81" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I81" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4141,28 +4133,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D82" s="1">
         <v>31052</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I82" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4170,22 +4162,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" t="s">
         <v>96</v>
       </c>
-      <c r="C83" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" t="s">
-        <v>98</v>
-      </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H83" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I83" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4193,22 +4185,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F84" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I84" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4216,22 +4208,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I85" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4239,22 +4231,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F86" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4262,28 +4254,28 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D87" s="1">
         <v>32198</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F87" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I87" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4291,25 +4283,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D88" s="1">
         <v>18994</v>
       </c>
       <c r="E88" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H88" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I88" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4317,28 +4309,28 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D89" s="1">
         <v>31487</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H89" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I89" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4346,28 +4338,28 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D90" s="1">
         <v>30536</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4375,28 +4367,28 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D91" s="1">
         <v>29934</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I91" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4404,25 +4396,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D92" s="1">
         <v>27962</v>
       </c>
       <c r="E92" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4430,25 +4422,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="1">
         <v>25282</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4456,28 +4448,28 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D94" s="1">
         <v>30099</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G94" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I94" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4485,28 +4477,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D95" s="1">
         <v>21158</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I95" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,28 +4506,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D96" s="1">
         <v>26193</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F96" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G96" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H96" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I96" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4543,28 +4535,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D97" s="1">
         <v>32493</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G97" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H97" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I97" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,25 +4564,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D98" s="1">
         <v>34616</v>
       </c>
       <c r="E98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4598,28 +4590,28 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D99" s="1">
         <v>19011</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G99" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I99" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,28 +4619,28 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D100" s="1">
         <v>35355</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I100" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4656,25 +4648,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D101" s="1">
         <v>36505</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F101" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4682,28 +4674,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D102" s="1">
         <v>36626</v>
       </c>
       <c r="E102" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I102" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4711,25 +4703,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1">
         <v>34823</v>
       </c>
       <c r="E103" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H103" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I103" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4737,25 +4729,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D104" s="1">
         <v>30992</v>
       </c>
       <c r="E104" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F104" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I104" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4763,28 +4755,28 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D105" s="1">
         <v>33619</v>
       </c>
       <c r="E105" t="s">
+        <v>375</v>
+      </c>
+      <c r="F105" t="s">
+        <v>376</v>
+      </c>
+      <c r="G105" t="s">
         <v>379</v>
       </c>
-      <c r="F105" t="s">
-        <v>380</v>
-      </c>
-      <c r="G105" t="s">
-        <v>383</v>
-      </c>
       <c r="H105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I105" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4792,25 +4784,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D106" s="1">
         <v>25569</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F106" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H106" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,25 +4810,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E107" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F107" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G107" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H107" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I107" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,25 +4836,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E108" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G108" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H108" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I108" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4870,25 +4862,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G109" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H109" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I109" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4896,28 +4888,28 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D110" s="1">
         <v>32478</v>
       </c>
       <c r="E110" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G110" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I110" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4925,25 +4917,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E111" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G111" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I111" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4951,22 +4943,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F112" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I112" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4974,25 +4966,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
+        <v>388</v>
+      </c>
+      <c r="G113" t="s">
         <v>392</v>
       </c>
-      <c r="G113" t="s">
-        <v>396</v>
-      </c>
       <c r="H113" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I113" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,22 +4992,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C114" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F114" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H114" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I114" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,25 +5015,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C115" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G115" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I115" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5049,25 +5041,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E116" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H116" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I116" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5075,28 +5067,28 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D117" s="1">
         <v>28858</v>
       </c>
       <c r="E117" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G117" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H117" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I117" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,28 +5096,28 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D118" s="1">
         <v>20621</v>
       </c>
       <c r="E118" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F118" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G118" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H118" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I118" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,28 +5125,28 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D119" s="1">
         <v>34435</v>
       </c>
       <c r="E119" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F119" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G119" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,28 +5154,28 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D120" s="1">
         <v>32946</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G120" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I120" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5191,28 +5183,28 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D121" s="1">
         <v>35388</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G121" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I121" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,28 +5212,28 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D122" s="1">
         <v>34597</v>
       </c>
       <c r="E122" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I122" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,28 +5241,28 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D123" s="1">
         <v>35814</v>
       </c>
       <c r="E123" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G123" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H123" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I123" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,25 +5270,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1">
         <v>26269</v>
       </c>
       <c r="E124" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I124" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5304,28 +5296,28 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D125" s="1">
         <v>26225</v>
       </c>
       <c r="E125" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G125" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H125" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I125" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5333,28 +5325,28 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D126" s="1">
         <v>35240</v>
       </c>
       <c r="E126" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G126" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I126" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5362,28 +5354,28 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D127" s="1">
         <v>33721</v>
       </c>
       <c r="E127" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F127" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G127" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5391,28 +5383,28 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C128" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D128" s="1">
         <v>29930</v>
       </c>
       <c r="E128" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G128" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I128" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5420,28 +5412,28 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D129" s="1">
         <v>27418</v>
       </c>
       <c r="E129" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G129" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H129" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I129" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5449,28 +5441,28 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D130" s="1">
         <v>28432</v>
       </c>
       <c r="E130" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F130" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G130" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H130" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I130" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5478,25 +5470,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C131" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E131" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F131" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G131" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5504,25 +5496,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F132" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G132" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H132" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I132" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5530,25 +5522,25 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D133" s="1">
         <v>31547</v>
       </c>
       <c r="E133" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F133" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H133" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I133" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5556,28 +5548,28 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D134" s="1">
         <v>36096</v>
       </c>
       <c r="E134" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F134" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G134" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I134" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5585,28 +5577,28 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>231</v>
+      </c>
+      <c r="C135" t="s">
         <v>234</v>
-      </c>
-      <c r="C135" t="s">
-        <v>237</v>
       </c>
       <c r="D135" s="1">
         <v>31439</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H135" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I135" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5614,25 +5606,25 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D136" s="1">
         <v>32998</v>
       </c>
       <c r="E136" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F136" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H136" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I136" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5640,28 +5632,28 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D137" s="1">
         <v>27760</v>
       </c>
       <c r="E137" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G137" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I137" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5669,28 +5661,28 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138" s="1">
         <v>27264</v>
       </c>
       <c r="E138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F138" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G138" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I138" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5698,28 +5690,28 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C139" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D139" s="1">
         <v>21006</v>
       </c>
       <c r="E139" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F139" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G139" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I139" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5727,28 +5719,28 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D140" s="1">
         <v>31017</v>
       </c>
       <c r="E140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F140" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G140" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H140" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I140" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5756,25 +5748,25 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G141" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I141" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5782,25 +5774,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F142" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G142" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H142" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I142" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5808,28 +5800,28 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C143" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D143" s="1">
         <v>33239</v>
       </c>
       <c r="E143" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G143" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H143" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I143" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5837,28 +5829,28 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C144" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D144" s="1">
         <v>23159</v>
       </c>
       <c r="E144" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G144" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I144" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5866,28 +5858,28 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D145" s="1">
         <v>28015</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G145" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H145" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I145" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5895,22 +5887,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H146" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I146" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5918,28 +5910,28 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D147" s="1">
         <v>36170</v>
       </c>
       <c r="E147" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F147" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G147" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H147" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I147" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5947,28 +5939,28 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D148" s="1">
         <v>29067</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5976,28 +5968,28 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C149" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D149" s="1">
         <v>26096</v>
       </c>
       <c r="E149" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F149" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G149" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H149" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I149" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6005,28 +5997,28 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D150" s="1">
         <v>30453</v>
       </c>
       <c r="E150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F150" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G150" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H150" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I150" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6034,28 +6026,28 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D151" s="1">
         <v>35653</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G151" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I151" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6063,28 +6055,28 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D152" s="1">
         <v>21134</v>
       </c>
       <c r="E152" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F152" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G152" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H152" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I152" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6092,28 +6084,28 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1">
         <v>21186</v>
       </c>
       <c r="E153" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F153" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G153" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H153" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I153" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6121,28 +6113,28 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D154" s="1">
         <v>23162</v>
       </c>
       <c r="E154" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F154" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G154" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H154" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I154" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6150,28 +6142,28 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D155" s="1">
         <v>18315</v>
       </c>
       <c r="E155" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F155" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G155" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I155" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6179,28 +6171,28 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D156" s="1">
         <v>25210</v>
       </c>
       <c r="E156" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H156" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I156" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6208,28 +6200,28 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C157" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D157" s="1">
         <v>23738</v>
       </c>
       <c r="E157" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F157" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G157" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H157" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I157" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,28 +6229,28 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D158" s="1">
         <v>27868</v>
       </c>
       <c r="E158" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F158" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G158" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H158" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I158" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6266,28 +6258,28 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C159" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D159" s="1">
         <v>33522</v>
       </c>
       <c r="E159" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F159" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G159" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H159" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I159" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -6295,28 +6287,28 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D160" s="1">
         <v>32916</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G160" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I160" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -6324,25 +6316,25 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D161" s="1">
         <v>33225</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H161" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I161" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6350,28 +6342,28 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C162" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D162" s="1">
         <v>33093</v>
       </c>
       <c r="E162" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F162" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G162" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H162" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I162" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -6379,28 +6371,28 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D163" s="1">
         <v>21222</v>
       </c>
       <c r="E163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F163" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G163" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H163" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I163" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -6408,28 +6400,28 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D164" s="1">
         <v>35111</v>
       </c>
       <c r="E164" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F164" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G164" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I164" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,28 +6429,28 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D165" s="1">
         <v>27313</v>
       </c>
       <c r="E165" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H165" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I165" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6466,28 +6458,28 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D166" s="1">
         <v>20154</v>
       </c>
       <c r="E166" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F166" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G166" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H166" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I166" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6495,28 +6487,28 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D167" s="1">
         <v>27779</v>
       </c>
       <c r="E167" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F167" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G167" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H167" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I167" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -6524,25 +6516,25 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C168" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D168" s="1">
         <v>35966</v>
       </c>
       <c r="E168" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F168" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H168" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I168" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6550,25 +6542,25 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D169" s="1">
         <v>11640</v>
       </c>
       <c r="E169" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F169" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H169" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I169" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6576,25 +6568,25 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D170" s="1">
         <v>11462</v>
       </c>
       <c r="E170" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F170" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I170" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6602,25 +6594,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D171" s="1">
         <v>32231</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H171" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I171" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6628,25 +6620,25 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D172" s="1">
         <v>26435</v>
       </c>
       <c r="E172" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H172" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I172" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6654,25 +6646,25 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D173" s="1">
         <v>21505</v>
       </c>
       <c r="E173" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F173" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H173" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I173" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6680,25 +6672,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D174" s="1">
         <v>28362</v>
       </c>
       <c r="E174" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F174" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H174" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I174" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6706,22 +6698,22 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E175" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F175" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H175" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I175" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,22 +6721,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E176" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F176" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H176" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I176" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,28 +6744,28 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D177" s="1">
         <v>30124</v>
       </c>
       <c r="E177" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G177" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H177" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I177" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6781,28 +6773,28 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C178" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D178" s="1">
         <v>31709</v>
       </c>
       <c r="E178" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F178" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G178" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H178" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I178" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6810,28 +6802,28 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C179" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D179" s="1">
         <v>37247</v>
       </c>
       <c r="E179" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F179" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G179" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H179" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I179" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6839,28 +6831,28 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D180" s="1">
         <v>35955</v>
       </c>
       <c r="E180" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G180" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H180" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I180" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -6872,11 +6864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7790DD-513E-4AE4-A21E-841FED70340F}">
   <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E214" sqref="E214"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6893,19 +6885,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>10</v>
+        <v>481</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,7 +6942,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6967,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,7 +6977,7 @@
         <v>270</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7003,7 +6995,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7021,7 +7013,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7066,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7083,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7100,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7117,7 +7109,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7134,7 +7126,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7202,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7230,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7261,7 +7253,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7278,7 +7270,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7295,7 +7287,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7312,7 +7304,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7343,7 +7335,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7360,7 +7352,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7377,7 +7369,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7394,7 +7386,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7453,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7526,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7543,7 +7535,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7585,7 +7577,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7602,7 +7594,7 @@
         <v>50</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7633,7 +7625,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7678,7 +7670,7 @@
         <v>25</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7695,7 +7687,7 @@
         <v>50</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7712,7 +7704,7 @@
         <v>25</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7729,7 +7721,7 @@
         <v>30</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7768,7 +7760,7 @@
         <v>25</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7782,7 +7774,7 @@
         <v>50</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,7 +7791,7 @@
         <v>25</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7816,7 +7808,7 @@
         <v>30</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7861,7 +7853,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7903,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -7942,7 +7934,7 @@
         <v>50</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,7 +7951,7 @@
         <v>50</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -8000,7 +7992,7 @@
         <v>50</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,7 +8009,7 @@
         <v>50</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -8034,7 +8026,7 @@
         <v>50</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,7 +8132,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -8157,7 +8149,7 @@
         <v>25</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8188,7 +8180,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -8205,7 +8197,7 @@
         <v>25</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8236,7 +8228,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -8253,7 +8245,7 @@
         <v>50</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -8270,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8287,7 +8279,7 @@
         <v>530</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8304,7 +8296,7 @@
         <v>530</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8318,7 +8310,7 @@
         <v>530</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -8335,7 +8327,7 @@
         <v>300</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -8352,7 +8344,7 @@
         <v>1000</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -8369,7 +8361,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -8386,7 +8378,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -8403,7 +8395,7 @@
         <v>4</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -8420,7 +8412,7 @@
         <v>25</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -8437,7 +8429,7 @@
         <v>30</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -8454,7 +8446,7 @@
         <v>30</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -8471,7 +8463,7 @@
         <v>30</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -8488,7 +8480,7 @@
         <v>15</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -8505,7 +8497,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -8522,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -8539,7 +8531,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -8556,7 +8548,7 @@
         <v>20</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -8573,7 +8565,7 @@
         <v>30</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -8590,7 +8582,7 @@
         <v>30</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -8624,7 +8616,7 @@
         <v>50</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8641,7 +8633,7 @@
         <v>30</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8658,7 +8650,7 @@
         <v>30</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,7 +8667,7 @@
         <v>5</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8692,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8709,7 +8701,7 @@
         <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8723,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8740,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -8757,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8774,7 +8766,7 @@
         <v>5</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8791,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8808,7 +8800,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8825,7 +8817,7 @@
         <v>25</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8842,7 +8834,7 @@
         <v>25</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8876,7 +8868,7 @@
         <v>10</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8893,7 +8885,7 @@
         <v>20</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8910,7 +8902,7 @@
         <v>20</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -8927,7 +8919,7 @@
         <v>50</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -8944,7 +8936,7 @@
         <v>10</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -8961,7 +8953,7 @@
         <v>20</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -8978,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -8995,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -9012,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -9029,7 +9021,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -9046,7 +9038,7 @@
         <v>0.5</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -9063,7 +9055,7 @@
         <v>1.5</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -9080,7 +9072,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -9097,7 +9089,7 @@
         <v>7</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -9114,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -9131,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -9148,7 +9140,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -9165,7 +9157,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -9182,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -9199,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -9216,7 +9208,7 @@
         <v>400</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -9233,7 +9225,7 @@
         <v>15</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -9250,7 +9242,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -9267,7 +9259,7 @@
         <v>30</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -9284,7 +9276,7 @@
         <v>15</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -9301,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -9318,7 +9310,7 @@
         <v>10</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,7 +9327,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -9352,7 +9344,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -9369,7 +9361,7 @@
         <v>12</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -9386,7 +9378,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -9403,7 +9395,7 @@
         <v>20</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -9420,7 +9412,7 @@
         <v>50</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -9437,7 +9429,7 @@
         <v>20</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -9454,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -9471,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -9488,7 +9480,7 @@
         <v>0.5</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -9505,7 +9497,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -9522,7 +9514,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -9539,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -9556,7 +9548,7 @@
         <v>2</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -9573,7 +9565,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,7 +9579,7 @@
         <v>10</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -9604,7 +9596,7 @@
         <v>40</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -9621,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -9638,7 +9630,7 @@
         <v>0.5</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -9655,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -9672,7 +9664,7 @@
         <v>0.5</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -9689,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -9706,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -9723,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -9740,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -9757,7 +9749,7 @@
         <v>10</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -9774,7 +9766,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -9791,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -9808,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -9825,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -9842,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -9859,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -9876,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -9893,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -9910,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -9927,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -9944,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -9961,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -9978,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -9995,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -10023,7 +10015,7 @@
         <v>0.5</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -10040,7 +10032,7 @@
         <v>2.5</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -10057,7 +10049,7 @@
         <v>0.5</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -10074,7 +10066,7 @@
         <v>2.5</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -10091,7 +10083,7 @@
         <v>5</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -10108,7 +10100,7 @@
         <v>4</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -10125,7 +10117,7 @@
         <v>10</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -10142,7 +10134,7 @@
         <v>100</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -10159,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -10176,7 +10168,7 @@
         <v>2.7</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -10193,7 +10185,7 @@
         <v>5</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -10210,7 +10202,7 @@
         <v>2</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -10224,7 +10216,7 @@
         <v>5</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -10241,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -10258,7 +10250,7 @@
         <v>0.2</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,7 +10267,7 @@
         <v>10</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -10303,7 +10295,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -10331,7 +10323,7 @@
         <v>5</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -10348,7 +10340,7 @@
         <v>5</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -10365,7 +10357,7 @@
         <v>5</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -10382,7 +10374,7 @@
         <v>8</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -10399,7 +10391,7 @@
         <v>5</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -10416,7 +10408,7 @@
         <v>5</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -10433,7 +10425,7 @@
         <v>5</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -10450,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -10467,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -10484,7 +10476,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -10501,7 +10493,7 @@
         <v>10</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -10518,7 +10510,7 @@
         <v>10</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -10535,7 +10527,7 @@
         <v>10</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -10552,7 +10544,7 @@
         <v>10</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -10569,7 +10561,7 @@
         <v>5</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -10586,7 +10578,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -10603,7 +10595,7 @@
         <v>10</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -10620,7 +10612,7 @@
         <v>5</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -10637,7 +10629,7 @@
         <v>5</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -10654,7 +10646,7 @@
         <v>5</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -10671,7 +10663,7 @@
         <v>5</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -10688,7 +10680,7 @@
         <v>2</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -10702,7 +10694,7 @@
         <v>44500</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -10719,7 +10711,7 @@
         <v>5</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -10736,7 +10728,7 @@
         <v>20</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -10750,7 +10742,7 @@
         <v>44500</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -10767,7 +10759,7 @@
         <v>299</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -10801,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -10812,7 +10804,7 @@
         <v>2020</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -10829,7 +10821,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -10840,7 +10832,7 @@
         <v>2020</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -10857,7 +10849,7 @@
         <v>15</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -10874,7 +10866,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -10891,7 +10883,7 @@
         <v>0.3</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -10902,7 +10894,7 @@
         <v>2020</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -10919,7 +10911,7 @@
         <v>20</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -10936,7 +10928,7 @@
         <v>10</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -10953,7 +10945,7 @@
         <v>5</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -10970,7 +10962,7 @@
         <v>10</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -10987,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -11004,7 +10996,7 @@
         <v>10</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -11021,7 +11013,7 @@
         <v>20</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -11038,7 +11030,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -11055,7 +11047,7 @@
         <v>20</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -11072,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -11089,7 +11081,7 @@
         <v>10</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -11106,7 +11098,7 @@
         <v>5</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -11123,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -11140,7 +11132,7 @@
         <v>5</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -11157,7 +11149,7 @@
         <v>3</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -11174,7 +11166,7 @@
         <v>20</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -11191,7 +11183,7 @@
         <v>2</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -11208,7 +11200,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -11225,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -11242,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -11259,7 +11251,7 @@
         <v>10</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -11276,7 +11268,7 @@
         <v>20</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -11293,7 +11285,7 @@
         <v>20</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -11310,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -11327,7 +11319,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -11344,7 +11336,7 @@
         <v>5</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -11361,7 +11353,7 @@
         <v>20</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -11378,7 +11370,7 @@
         <v>10</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -11395,7 +11387,7 @@
         <v>5</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -11406,7 +11398,7 @@
         <v>2020</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -11423,7 +11415,7 @@
         <v>10</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -11440,7 +11432,7 @@
         <v>0.1</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -11457,7 +11449,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -11474,10 +11466,11 @@
         <v>8</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F283" xr:uid="{0952D4E2-D0E6-42E4-B8DA-6B8C3928B35A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11487,7 +11480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329E75FE-A9E3-4689-BC56-53040FE9E090}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -11511,541 +11504,541 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
         <v>207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
         <v>192</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
         <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
         <v>200</v>
-      </c>
-      <c r="B25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
         <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
         <v>123</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B35" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
         <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
         <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
         <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
         <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C44" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
         <v>184</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
         <v>163</v>
-      </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
         <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
         <v>142</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cours\BUT1\Semestre 2\SAÉ 201 - Conception et implémentation d'une base de données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139B427-D3B9-45FC-A353-B20A6993D43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D2C583-0CBB-4F83-A0D1-31B218D4D8AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="1" xr2:uid="{0F7A7C38-D0DF-4424-AE5F-56D450649275}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" xr2:uid="{0F7A7C38-D0DF-4424-AE5F-56D450649275}"/>
   </bookViews>
   <sheets>
     <sheet name="ADHERENT" sheetId="2" r:id="rId1"/>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7445ACD4-DF87-45BB-AB16-677ED039E57B}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I180"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6864,11 +6864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7790DD-513E-4AE4-A21E-841FED70340F}">
   <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
